--- a/Tables/Assembly_Metrics.xlsx
+++ b/Tables/Assembly_Metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Davis_B_napus_assembly_2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F75FB06-2600-42FF-B1A3-FDB768E0A82C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC494A6E-88D2-4849-A99C-1CE0368B6115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40920" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="1" xr2:uid="{7AE78679-F949-41F3-A13F-688E2FE30A0E}"/>
+    <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7AE78679-F949-41F3-A13F-688E2FE30A0E}"/>
   </bookViews>
   <sheets>
     <sheet name="BUSCOs" sheetId="1" r:id="rId1"/>
@@ -273,8 +273,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="#,##0_ "/>
-    <numFmt numFmtId="169" formatCode="0.00_ "/>
+    <numFmt numFmtId="164" formatCode="#,##0_ "/>
+    <numFmt numFmtId="165" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -385,58 +385,58 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -753,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1374E5B-E37D-404D-AD35-632E1017A0B8}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -818,13 +818,46 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
+      <c r="B3">
+        <v>98.5</v>
+      </c>
+      <c r="C3">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D3">
+        <v>78.599999999999994</v>
+      </c>
       <c r="E3">
-        <v>0.6</v>
+        <v>0.1</v>
+      </c>
+      <c r="F3">
+        <v>1.4</v>
+      </c>
+      <c r="G3">
+        <v>4596</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>23</v>
+      </c>
+      <c r="B4">
+        <v>98.5</v>
+      </c>
+      <c r="C4">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="D4">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="E4">
+        <v>0.1</v>
+      </c>
+      <c r="F4">
+        <v>1.4</v>
+      </c>
+      <c r="G4">
+        <v>4596</v>
       </c>
     </row>
   </sheetData>
@@ -837,7 +870,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBF4821-B483-46FA-B2E9-0EDF5C01F089}">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
@@ -854,320 +887,320 @@
       <c r="A1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="13" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="15">
         <v>38004428</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="15">
         <v>30963416</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="15">
         <v>32958928</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="15">
         <v>35943954</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="15">
         <v>29581582</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="15">
         <v>33432960</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="15">
         <v>44868710</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="15">
         <v>38724999</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="15">
         <v>39685748</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="15">
         <v>25679024</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="15">
         <v>22079791</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="15">
         <v>23101715</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="15">
         <v>45991561</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="15">
         <v>29228566</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="15">
         <v>42112164</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="15">
         <v>48704706</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="15">
         <v>28937740</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="15">
         <v>45146386</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="15">
         <v>32302721</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="15">
         <v>28277616</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="15">
         <v>29390523</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="15">
         <v>28329074</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="15">
         <v>23154485</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="15">
         <v>26309499</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="15">
         <v>65862748</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="15">
         <v>45044935</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="15">
         <v>53549826</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="15">
         <v>26592803</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="15">
         <v>19559996</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="15">
         <v>20778245</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="15">
         <v>57880920</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="15">
         <v>51431623</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="15">
         <v>48239358</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="15">
         <v>65293782</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="15">
         <v>58167434</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="15">
         <v>62297340</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="15">
         <v>79061710</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="15">
         <v>74222928</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="15">
         <v>73669886</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="15">
         <v>71179181</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="15">
         <v>62924550</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="15">
         <v>65837619</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="B17" s="17">
+      <c r="B17" s="15">
         <v>59550008</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="15">
         <v>56537224</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="15">
         <v>56382805</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="15">
         <v>52512057</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="15">
         <v>48209797</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D18" s="15">
         <v>50218839</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="15">
         <v>60986212</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="15">
         <v>54958258</v>
       </c>
-      <c r="D19" s="17">
+      <c r="D19" s="15">
         <v>55656957</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="17">
+      <c r="B20" s="15">
         <v>53660391</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="15">
         <v>49204614</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D20" s="15">
         <v>41681856</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B21" s="17">
+      <c r="B21" s="15">
         <v>68416614</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="15">
         <v>64956572</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="15">
         <v>66465249</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="17">
+      <c r="B22" s="15">
         <v>960820604</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="15">
         <v>816166126</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="15">
         <v>866915903</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="20">
+      <c r="B23" s="18">
         <v>1010887456</v>
       </c>
-      <c r="C23" s="20">
+      <c r="C23" s="18">
         <v>1001499700</v>
       </c>
-      <c r="D23" s="20">
+      <c r="D23" s="18">
         <v>923795763</v>
       </c>
     </row>
@@ -1177,10 +1210,10 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="F27" s="21"/>
+      <c r="F27" s="19"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G30" s="21"/>
+      <c r="G30" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1232,65 +1265,65 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="20"/>
+      <c r="F2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="4"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:17" ht="54.4" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="5"/>
-      <c r="B3" s="6" t="s">
+      <c r="A3" s="21"/>
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="7">
         <v>279891636</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="8">
         <f>B4/1001499700*100</f>
         <v>27.947251107514059</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="7">
         <v>301651364</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="8">
         <f>D4/1010887456*100</f>
         <v>29.840251969651504</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="7">
         <v>234603345</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="8">
         <f>F4/923795763*100</f>
         <v>25.395585734029829</v>
       </c>
@@ -1299,24 +1332,24 @@
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="7">
         <v>375932</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="8">
         <f t="shared" ref="C5:C13" si="0">B5/1001499700*100</f>
         <v>3.7536905902218448E-2</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="7">
         <v>132092</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="8">
         <f t="shared" ref="E5:E13" si="1">D5/1010887456*100</f>
         <v>1.3066934327454944E-2</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="7">
         <v>67012</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="8">
         <f t="shared" ref="G5:G13" si="2">F5/923795763*100</f>
         <v>7.253984341991402E-3</v>
       </c>
@@ -1325,24 +1358,24 @@
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="7">
         <v>29216324</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="8">
         <f t="shared" si="0"/>
         <v>2.9172573890935762</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="7">
         <v>28783458</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="8">
         <f t="shared" si="1"/>
         <v>2.8473454516780552</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="7">
         <v>27714254</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="8">
         <f t="shared" si="2"/>
         <v>3.0000412547897777</v>
       </c>
@@ -1351,24 +1384,24 @@
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="7">
         <v>250299380</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="8">
         <f t="shared" si="0"/>
         <v>24.992456812518267</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="7">
         <v>272735814</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="8">
         <f t="shared" si="1"/>
         <v>26.979839583645997</v>
       </c>
-      <c r="F7" s="9">
+      <c r="F7" s="7">
         <v>206822079</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="8">
         <f t="shared" si="2"/>
         <v>22.388290494898058</v>
       </c>
@@ -1377,24 +1410,24 @@
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="7">
         <v>82726692</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="8">
         <f t="shared" si="0"/>
         <v>8.2602812562000771</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="7">
         <v>82083435</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="8">
         <f t="shared" si="1"/>
         <v>8.1199380319543693</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="7">
         <v>65303382</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="8">
         <f t="shared" si="2"/>
         <v>7.0690280920892246</v>
       </c>
@@ -1403,50 +1436,50 @@
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="7">
         <v>104171553</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="8">
         <f t="shared" si="0"/>
         <v>10.401556086337321</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="7">
         <v>103423820</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="8">
         <f t="shared" si="1"/>
         <v>10.23099251911184</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="7">
         <v>92951519</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="8">
         <f t="shared" si="2"/>
         <v>10.06191224542345</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="7">
         <v>41357988</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="8">
         <f t="shared" si="0"/>
         <v>4.1296056304360356</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="7">
         <v>41077363</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="8">
         <f t="shared" si="1"/>
         <v>4.0634951750751567</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="7">
         <v>38608863</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="8">
         <f t="shared" si="2"/>
         <v>4.1793721671356057</v>
       </c>
@@ -1455,24 +1488,24 @@
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="7">
         <v>2047996</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="8">
         <f t="shared" si="0"/>
         <v>0.20449292196492919</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="7">
         <v>2077757</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="8">
         <f t="shared" si="1"/>
         <v>0.20553791499416924</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="7">
         <v>1999669</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="8">
         <f t="shared" si="2"/>
         <v>0.21646223982518961</v>
       </c>
@@ -1481,80 +1514,80 @@
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="7">
         <v>4906031</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="8">
         <f t="shared" si="0"/>
         <v>0.48986844429409215</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="7">
         <v>4830866</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="8">
         <f t="shared" si="1"/>
         <v>0.47788366264978172</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="7">
         <v>4484716</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="8">
         <f t="shared" si="2"/>
         <v>0.48546617982269313</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="7">
         <v>218661515</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="8">
         <f t="shared" si="0"/>
         <v>21.833407938115208</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="7">
         <v>219971502</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="8">
         <f t="shared" si="1"/>
         <v>21.760236581667506</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="7">
         <v>204308974</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="8">
         <f t="shared" si="2"/>
         <v>22.116249303472937</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="11">
-        <f>SUM(B4,B10,B13)</f>
+      <c r="B14" s="9">
+        <f t="shared" ref="B14:G14" si="3">SUM(B4,B10,B13)</f>
         <v>539911139</v>
       </c>
-      <c r="C14" s="12">
-        <f>SUM(C4,C10,C13)</f>
+      <c r="C14" s="10">
+        <f t="shared" si="3"/>
         <v>53.910264676065303</v>
       </c>
-      <c r="D14" s="11">
-        <f>SUM(D4,D10,D13)</f>
+      <c r="D14" s="9">
+        <f t="shared" si="3"/>
         <v>562700229</v>
       </c>
-      <c r="E14" s="12">
-        <f>SUM(E4,E10,E13)</f>
+      <c r="E14" s="10">
+        <f t="shared" si="3"/>
         <v>55.663983726394164</v>
       </c>
-      <c r="F14" s="11">
-        <f>SUM(F4,F10,F13)</f>
+      <c r="F14" s="9">
+        <f t="shared" si="3"/>
         <v>477521182</v>
       </c>
-      <c r="G14" s="12">
-        <f>SUM(G4,G10,G13)</f>
+      <c r="G14" s="10">
+        <f t="shared" si="3"/>
         <v>51.691207204638374</v>
       </c>
     </row>

--- a/Tables/Assembly_Metrics.xlsx
+++ b/Tables/Assembly_Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Davis_B_napus_assembly_2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC494A6E-88D2-4849-A99C-1CE0368B6115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EC621B-0DA6-4837-AC70-D73AF38B4BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7AE78679-F949-41F3-A13F-688E2FE30A0E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
   <si>
     <t>Assembly</t>
   </si>
@@ -266,6 +266,33 @@
   </si>
   <si>
     <t>faSize -detailed assembly.fa</t>
+  </si>
+  <si>
+    <t>Pseudochromosome N50</t>
+  </si>
+  <si>
+    <t>Total assembly N50</t>
+  </si>
+  <si>
+    <t>Gangan</t>
+  </si>
+  <si>
+    <t>No2127</t>
+  </si>
+  <si>
+    <t>Quinta</t>
+  </si>
+  <si>
+    <t>Shengli</t>
+  </si>
+  <si>
+    <t>Tapidor</t>
+  </si>
+  <si>
+    <t>Westar</t>
+  </si>
+  <si>
+    <t>Zheyou7</t>
   </si>
 </sst>
 </file>
@@ -751,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1374E5B-E37D-404D-AD35-632E1017A0B8}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -860,6 +887,167 @@
         <v>4596</v>
       </c>
     </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5">
+        <v>98.5</v>
+      </c>
+      <c r="C5">
+        <v>21.7</v>
+      </c>
+      <c r="D5">
+        <v>76.8</v>
+      </c>
+      <c r="E5">
+        <v>0.1</v>
+      </c>
+      <c r="F5">
+        <v>1.4</v>
+      </c>
+      <c r="G5">
+        <v>4596</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6">
+        <v>98.4</v>
+      </c>
+      <c r="C6">
+        <v>25.1</v>
+      </c>
+      <c r="D6">
+        <v>73.3</v>
+      </c>
+      <c r="E6">
+        <v>0.2</v>
+      </c>
+      <c r="F6">
+        <v>1.4</v>
+      </c>
+      <c r="G6">
+        <v>4596</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7">
+        <v>98.7</v>
+      </c>
+      <c r="C7">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="D7">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1.3</v>
+      </c>
+      <c r="G7">
+        <v>4596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8">
+        <v>98.4</v>
+      </c>
+      <c r="C8">
+        <v>22.1</v>
+      </c>
+      <c r="D8">
+        <v>76.3</v>
+      </c>
+      <c r="E8">
+        <v>0.1</v>
+      </c>
+      <c r="F8">
+        <v>1.5</v>
+      </c>
+      <c r="G8">
+        <v>4596</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9">
+        <v>98.5</v>
+      </c>
+      <c r="C9">
+        <v>21.7</v>
+      </c>
+      <c r="D9">
+        <v>76.8</v>
+      </c>
+      <c r="E9">
+        <v>0.1</v>
+      </c>
+      <c r="F9">
+        <v>1.4</v>
+      </c>
+      <c r="G9">
+        <v>4596</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10">
+        <v>98.7</v>
+      </c>
+      <c r="C10">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D10">
+        <v>78.8</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1.3</v>
+      </c>
+      <c r="G10">
+        <v>4596</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11">
+        <v>98.5</v>
+      </c>
+      <c r="C11">
+        <v>21.6</v>
+      </c>
+      <c r="D11">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>1.5</v>
+      </c>
+      <c r="G11">
+        <v>4596</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -868,15 +1056,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBF4821-B483-46FA-B2E9-0EDF5C01F089}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.9296875" customWidth="1"/>
+    <col min="1" max="1" width="24.265625" customWidth="1"/>
     <col min="2" max="3" width="11.46484375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.46484375" bestFit="1" customWidth="1"/>
     <col min="5" max="10" width="11.46484375" bestFit="1" customWidth="1"/>
@@ -1178,42 +1366,70 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="15">
+        <v>57880920</v>
+      </c>
+      <c r="C22" s="15">
+        <v>51431623</v>
+      </c>
+      <c r="D22" s="15">
+        <v>53549826</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="15">
+        <v>57880920</v>
+      </c>
+      <c r="C23" s="15">
+        <v>48209797</v>
+      </c>
+      <c r="D23" s="15">
+        <v>50218839</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="15">
+      <c r="B24" s="15">
         <v>960820604</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C24" s="15">
         <v>816166126</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D24" s="15">
         <v>866915903</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="17" t="s">
+    <row r="25" spans="1:7" ht="18.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="18">
+      <c r="B25" s="18">
         <v>1010887456</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C25" s="18">
         <v>1001499700</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D25" s="18">
         <v>923795763</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A26" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="F27" s="19"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G30" s="19"/>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F29" s="19"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G32" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1225,15 +1441,18 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="63.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1328125" customWidth="1"/>
     <col min="4" max="4" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1328125" customWidth="1"/>
     <col min="6" max="6" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
     <col min="8" max="8" width="11.1328125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.1328125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.1328125" bestFit="1" customWidth="1"/>

--- a/Tables/Assembly_Metrics.xlsx
+++ b/Tables/Assembly_Metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Davis_B_napus_assembly_2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52EC621B-0DA6-4837-AC70-D73AF38B4BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6EB95F-6A18-4F5F-B0B8-273255E1EAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7AE78679-F949-41F3-A13F-688E2FE30A0E}"/>
+    <workbookView xWindow="40920" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{7AE78679-F949-41F3-A13F-688E2FE30A0E}"/>
   </bookViews>
   <sheets>
     <sheet name="BUSCOs" sheetId="1" r:id="rId1"/>
@@ -143,9 +143,6 @@
     <t>../Repeat_Masker_RAW/RepeatMasker/RepeatMasker \</t>
   </si>
   <si>
-    <t xml:space="preserve">  -pa 10 \</t>
-  </si>
-  <si>
     <t xml:space="preserve">  -gff \</t>
   </si>
   <si>
@@ -293,6 +290,9 @@
   </si>
   <si>
     <t>Zheyou7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -pa 5 \</t>
   </si>
 </sst>
 </file>
@@ -780,7 +780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1374E5B-E37D-404D-AD35-632E1017A0B8}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
@@ -889,7 +889,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5">
         <v>98.5</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6">
         <v>98.4</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7">
         <v>98.7</v>
@@ -958,7 +958,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8">
         <v>98.4</v>
@@ -981,7 +981,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9">
         <v>98.5</v>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10">
         <v>98.7</v>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11">
         <v>98.5</v>
@@ -1073,7 +1073,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="11"/>
       <c r="C1" s="11"/>
@@ -1086,21 +1086,21 @@
     </row>
     <row r="2" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>35</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>36</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B3" s="15">
         <v>38004428</v>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="15">
         <v>35943954</v>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="15">
         <v>44868710</v>
@@ -1142,7 +1142,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="15">
         <v>25679024</v>
@@ -1156,7 +1156,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="15">
         <v>45991561</v>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="15">
         <v>48704706</v>
@@ -1184,7 +1184,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="15">
         <v>32302721</v>
@@ -1198,7 +1198,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A10" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="15">
         <v>28329074</v>
@@ -1212,7 +1212,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A11" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="15">
         <v>65862748</v>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="15">
         <v>26592803</v>
@@ -1240,7 +1240,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A13" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="15">
         <v>57880920</v>
@@ -1254,7 +1254,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B14" s="15">
         <v>65293782</v>
@@ -1268,7 +1268,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" s="15">
         <v>79061710</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B16" s="15">
         <v>71179181</v>
@@ -1296,7 +1296,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" s="15">
         <v>59550008</v>
@@ -1310,7 +1310,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B18" s="15">
         <v>52512057</v>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B19" s="15">
         <v>60986212</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" s="15">
         <v>53660391</v>
@@ -1352,7 +1352,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21" s="15">
         <v>68416614</v>
@@ -1366,7 +1366,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="15">
         <v>57880920</v>
@@ -1380,7 +1380,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B23" s="15">
         <v>57880920</v>
@@ -1394,7 +1394,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B24" s="15">
         <v>960820604</v>
@@ -1408,7 +1408,7 @@
     </row>
     <row r="25" spans="1:7" ht="18.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A25" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B25" s="18">
         <v>1010887456</v>
@@ -1422,7 +1422,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.45">
@@ -1440,8 +1440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E225DD34-2AEF-40F8-90BB-6F23BC70FCCA}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="G2" s="20"/>
     </row>
-    <row r="3" spans="1:17" ht="54.4" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:17" ht="40.9" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A3" s="21"/>
       <c r="B3" s="4" t="s">
         <v>10</v>
@@ -1812,7 +1812,7 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.45">
@@ -1827,37 +1827,37 @@
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Assembly_Metrics.xlsx
+++ b/Tables/Assembly_Metrics.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Davis_B_napus_assembly_2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE6EB95F-6A18-4F5F-B0B8-273255E1EAA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B1F167-A052-4440-8CEB-CDF2F0C9165E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40920" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="2" xr2:uid="{7AE78679-F949-41F3-A13F-688E2FE30A0E}"/>
+    <workbookView xWindow="40920" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{7AE78679-F949-41F3-A13F-688E2FE30A0E}"/>
   </bookViews>
   <sheets>
-    <sheet name="BUSCOs" sheetId="1" r:id="rId1"/>
-    <sheet name="Anchored Chromosomes" sheetId="3" r:id="rId2"/>
-    <sheet name="TE Content" sheetId="2" r:id="rId3"/>
+    <sheet name="Table 1 (Anchored Chromosome)" sheetId="4" r:id="rId1"/>
+    <sheet name="Table 2 (BUSCOs)" sheetId="5" r:id="rId2"/>
+    <sheet name="Table 3 (TE Content)" sheetId="6" r:id="rId3"/>
+    <sheet name="Anchored Chromosomes" sheetId="3" r:id="rId4"/>
+    <sheet name="BUSCOs" sheetId="1" r:id="rId5"/>
+    <sheet name="TE Content" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="73">
   <si>
     <t>Assembly</t>
   </si>
@@ -294,16 +297,26 @@
   <si>
     <t xml:space="preserve">  -pa 5 \</t>
   </si>
+  <si>
+    <t xml:space="preserve"> The statistics of anchored chromosome length of 3 B. napus genomes</t>
+  </si>
+  <si>
+    <t>Darmor-Bzh_V4.1</t>
+  </si>
+  <si>
+    <t>Comparison of the transposable elements among 3 B. napus genomes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0_ "/>
     <numFmt numFmtId="165" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -350,6 +363,21 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -398,10 +426,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -464,8 +493,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -777,11 +824,1225 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1374E5B-E37D-404D-AD35-632E1017A0B8}">
-  <dimension ref="A1:G11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98FC614F-9CA2-46A1-97D1-FE27D06B91B6}">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="21.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.53125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="28">
+        <v>38004428</v>
+      </c>
+      <c r="C3" s="28">
+        <v>30963416</v>
+      </c>
+      <c r="D3" s="28">
+        <v>32958928</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="28">
+        <v>35943954</v>
+      </c>
+      <c r="C4" s="28">
+        <v>29581582</v>
+      </c>
+      <c r="D4" s="28">
+        <v>33432960</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="28">
+        <v>44868710</v>
+      </c>
+      <c r="C5" s="28">
+        <v>38724999</v>
+      </c>
+      <c r="D5" s="28">
+        <v>39685748</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="28">
+        <v>25679024</v>
+      </c>
+      <c r="C6" s="28">
+        <v>22079791</v>
+      </c>
+      <c r="D6" s="28">
+        <v>23101715</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="28">
+        <v>45991561</v>
+      </c>
+      <c r="C7" s="28">
+        <v>29228566</v>
+      </c>
+      <c r="D7" s="28">
+        <v>42112164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="28">
+        <v>48704706</v>
+      </c>
+      <c r="C8" s="28">
+        <v>28937740</v>
+      </c>
+      <c r="D8" s="28">
+        <v>45146386</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="28">
+        <v>32302721</v>
+      </c>
+      <c r="C9" s="28">
+        <v>28277616</v>
+      </c>
+      <c r="D9" s="28">
+        <v>29390523</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="28">
+        <v>28329074</v>
+      </c>
+      <c r="C10" s="28">
+        <v>23154485</v>
+      </c>
+      <c r="D10" s="28">
+        <v>26309499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="28">
+        <v>65862748</v>
+      </c>
+      <c r="C11" s="28">
+        <v>45044935</v>
+      </c>
+      <c r="D11" s="28">
+        <v>53549826</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="28">
+        <v>26592803</v>
+      </c>
+      <c r="C12" s="28">
+        <v>19559996</v>
+      </c>
+      <c r="D12" s="28">
+        <v>20778245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="28">
+        <v>57880920</v>
+      </c>
+      <c r="C13" s="28">
+        <v>51431623</v>
+      </c>
+      <c r="D13" s="28">
+        <v>48239358</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="28">
+        <v>65293782</v>
+      </c>
+      <c r="C14" s="28">
+        <v>58167434</v>
+      </c>
+      <c r="D14" s="28">
+        <v>62297340</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="28">
+        <v>79061710</v>
+      </c>
+      <c r="C15" s="28">
+        <v>74222928</v>
+      </c>
+      <c r="D15" s="28">
+        <v>73669886</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="28">
+        <v>71179181</v>
+      </c>
+      <c r="C16" s="28">
+        <v>62924550</v>
+      </c>
+      <c r="D16" s="28">
+        <v>65837619</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="28">
+        <v>59550008</v>
+      </c>
+      <c r="C17" s="28">
+        <v>56537224</v>
+      </c>
+      <c r="D17" s="28">
+        <v>56382805</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="28">
+        <v>52512057</v>
+      </c>
+      <c r="C18" s="28">
+        <v>48209797</v>
+      </c>
+      <c r="D18" s="28">
+        <v>50218839</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="28">
+        <v>60986212</v>
+      </c>
+      <c r="C19" s="28">
+        <v>54958258</v>
+      </c>
+      <c r="D19" s="28">
+        <v>55656957</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="28">
+        <v>53660391</v>
+      </c>
+      <c r="C20" s="28">
+        <v>49204614</v>
+      </c>
+      <c r="D20" s="28">
+        <v>41681856</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="28">
+        <v>68416614</v>
+      </c>
+      <c r="C21" s="28">
+        <v>64956572</v>
+      </c>
+      <c r="D21" s="28">
+        <v>66465249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="28">
+        <v>57880920</v>
+      </c>
+      <c r="C22" s="28">
+        <v>51431623</v>
+      </c>
+      <c r="D22" s="28">
+        <v>53549826</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="28">
+        <v>57880920</v>
+      </c>
+      <c r="C23" s="28">
+        <v>48209797</v>
+      </c>
+      <c r="D23" s="28">
+        <v>50218839</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="28">
+        <v>960820604</v>
+      </c>
+      <c r="C24" s="28">
+        <v>816166126</v>
+      </c>
+      <c r="D24" s="28">
+        <v>866915903</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="28">
+        <v>1010887456</v>
+      </c>
+      <c r="C25" s="28">
+        <v>1001499700</v>
+      </c>
+      <c r="D25" s="28">
+        <v>923795763</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7574E31A-7B3A-4EAE-8125-1A977C69FD09}">
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+      <selection activeCell="B1" sqref="B1:G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.06640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.73046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>98.5</v>
+      </c>
+      <c r="C2">
+        <v>18</v>
+      </c>
+      <c r="D2">
+        <v>80.5</v>
+      </c>
+      <c r="E2">
+        <v>0.2</v>
+      </c>
+      <c r="F2">
+        <v>1.3</v>
+      </c>
+      <c r="G2">
+        <v>4596</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>98.5</v>
+      </c>
+      <c r="C3">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D3">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="E3">
+        <v>0.1</v>
+      </c>
+      <c r="F3">
+        <v>1.4</v>
+      </c>
+      <c r="G3">
+        <v>4596</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>98.5</v>
+      </c>
+      <c r="C4">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="D4">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="E4">
+        <v>0.1</v>
+      </c>
+      <c r="F4">
+        <v>1.4</v>
+      </c>
+      <c r="G4">
+        <v>4596</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5">
+        <v>98.2</v>
+      </c>
+      <c r="C5">
+        <v>20.6</v>
+      </c>
+      <c r="D5">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="E5">
+        <v>0.2</v>
+      </c>
+      <c r="F5">
+        <v>1.6</v>
+      </c>
+      <c r="G5">
+        <v>4596</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E46E268D-70F6-4270-B07D-D591128A4BCB}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="59.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.265625" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.265625" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="23"/>
+    </row>
+    <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="25"/>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>279891636</v>
+      </c>
+      <c r="C4">
+        <v>27.947251107514059</v>
+      </c>
+      <c r="D4">
+        <v>301651364</v>
+      </c>
+      <c r="E4">
+        <v>29.840251969651504</v>
+      </c>
+      <c r="F4">
+        <v>234603345</v>
+      </c>
+      <c r="G4">
+        <v>25.395585734029829</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>375932</v>
+      </c>
+      <c r="C5">
+        <v>3.7536905902218448E-2</v>
+      </c>
+      <c r="D5">
+        <v>132092</v>
+      </c>
+      <c r="E5">
+        <v>1.3066934327454944E-2</v>
+      </c>
+      <c r="F5">
+        <v>67012</v>
+      </c>
+      <c r="G5">
+        <v>7.253984341991402E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>29216324</v>
+      </c>
+      <c r="C6">
+        <v>2.9172573890935762</v>
+      </c>
+      <c r="D6">
+        <v>28783458</v>
+      </c>
+      <c r="E6">
+        <v>2.8473454516780552</v>
+      </c>
+      <c r="F6">
+        <v>27714254</v>
+      </c>
+      <c r="G6">
+        <v>3.0000412547897777</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7">
+        <v>250299380</v>
+      </c>
+      <c r="C7">
+        <v>24.992456812518267</v>
+      </c>
+      <c r="D7">
+        <v>272735814</v>
+      </c>
+      <c r="E7">
+        <v>26.979839583645997</v>
+      </c>
+      <c r="F7">
+        <v>206822079</v>
+      </c>
+      <c r="G7">
+        <v>22.388290494898058</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>82726692</v>
+      </c>
+      <c r="C8">
+        <v>8.2602812562000771</v>
+      </c>
+      <c r="D8">
+        <v>82083435</v>
+      </c>
+      <c r="E8">
+        <v>8.1199380319543693</v>
+      </c>
+      <c r="F8">
+        <v>65303382</v>
+      </c>
+      <c r="G8">
+        <v>7.0690280920892246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>104171553</v>
+      </c>
+      <c r="C9">
+        <v>10.401556086337321</v>
+      </c>
+      <c r="D9">
+        <v>103423820</v>
+      </c>
+      <c r="E9">
+        <v>10.23099251911184</v>
+      </c>
+      <c r="F9">
+        <v>92951519</v>
+      </c>
+      <c r="G9">
+        <v>10.06191224542345</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10">
+        <v>41357988</v>
+      </c>
+      <c r="C10">
+        <v>4.1296056304360356</v>
+      </c>
+      <c r="D10">
+        <v>41077363</v>
+      </c>
+      <c r="E10">
+        <v>4.0634951750751567</v>
+      </c>
+      <c r="F10">
+        <v>38608863</v>
+      </c>
+      <c r="G10">
+        <v>4.1793721671356057</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>2047996</v>
+      </c>
+      <c r="C11">
+        <v>0.20449292196492919</v>
+      </c>
+      <c r="D11">
+        <v>2077757</v>
+      </c>
+      <c r="E11">
+        <v>0.20553791499416924</v>
+      </c>
+      <c r="F11">
+        <v>1999669</v>
+      </c>
+      <c r="G11">
+        <v>0.21646223982518961</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <v>4906031</v>
+      </c>
+      <c r="C12">
+        <v>0.48986844429409215</v>
+      </c>
+      <c r="D12">
+        <v>4830866</v>
+      </c>
+      <c r="E12">
+        <v>0.47788366264978172</v>
+      </c>
+      <c r="F12">
+        <v>4484716</v>
+      </c>
+      <c r="G12">
+        <v>0.48546617982269313</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A13" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>218661515</v>
+      </c>
+      <c r="C13">
+        <v>21.833407938115208</v>
+      </c>
+      <c r="D13">
+        <v>219971502</v>
+      </c>
+      <c r="E13">
+        <v>21.760236581667506</v>
+      </c>
+      <c r="F13">
+        <v>204308974</v>
+      </c>
+      <c r="G13">
+        <v>22.116249303472937</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A14" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>539911139</v>
+      </c>
+      <c r="C14">
+        <v>53.910264676065303</v>
+      </c>
+      <c r="D14">
+        <v>562700229</v>
+      </c>
+      <c r="E14">
+        <v>55.663983726394164</v>
+      </c>
+      <c r="F14">
+        <v>477521182</v>
+      </c>
+      <c r="G14">
+        <v>51.691207204638374</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBF4821-B483-46FA-B2E9-0EDF5C01F089}">
+  <dimension ref="A1:I32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="24.265625" customWidth="1"/>
+    <col min="2" max="3" width="11.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.46484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="11.46484375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.46484375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="15">
+        <v>38004428</v>
+      </c>
+      <c r="C3" s="15">
+        <v>30963416</v>
+      </c>
+      <c r="D3" s="15">
+        <v>32958928</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="15">
+        <v>35943954</v>
+      </c>
+      <c r="C4" s="15">
+        <v>29581582</v>
+      </c>
+      <c r="D4" s="15">
+        <v>33432960</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="15">
+        <v>44868710</v>
+      </c>
+      <c r="C5" s="15">
+        <v>38724999</v>
+      </c>
+      <c r="D5" s="15">
+        <v>39685748</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="15">
+        <v>25679024</v>
+      </c>
+      <c r="C6" s="15">
+        <v>22079791</v>
+      </c>
+      <c r="D6" s="15">
+        <v>23101715</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="15">
+        <v>45991561</v>
+      </c>
+      <c r="C7" s="15">
+        <v>29228566</v>
+      </c>
+      <c r="D7" s="15">
+        <v>42112164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="15">
+        <v>48704706</v>
+      </c>
+      <c r="C8" s="15">
+        <v>28937740</v>
+      </c>
+      <c r="D8" s="15">
+        <v>45146386</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="15">
+        <v>32302721</v>
+      </c>
+      <c r="C9" s="15">
+        <v>28277616</v>
+      </c>
+      <c r="D9" s="15">
+        <v>29390523</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="15">
+        <v>28329074</v>
+      </c>
+      <c r="C10" s="15">
+        <v>23154485</v>
+      </c>
+      <c r="D10" s="15">
+        <v>26309499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="15">
+        <v>65862748</v>
+      </c>
+      <c r="C11" s="15">
+        <v>45044935</v>
+      </c>
+      <c r="D11" s="15">
+        <v>53549826</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="15">
+        <v>26592803</v>
+      </c>
+      <c r="C12" s="15">
+        <v>19559996</v>
+      </c>
+      <c r="D12" s="15">
+        <v>20778245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="15">
+        <v>57880920</v>
+      </c>
+      <c r="C13" s="15">
+        <v>51431623</v>
+      </c>
+      <c r="D13" s="15">
+        <v>48239358</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="15">
+        <v>65293782</v>
+      </c>
+      <c r="C14" s="15">
+        <v>58167434</v>
+      </c>
+      <c r="D14" s="15">
+        <v>62297340</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="15">
+        <v>79061710</v>
+      </c>
+      <c r="C15" s="15">
+        <v>74222928</v>
+      </c>
+      <c r="D15" s="15">
+        <v>73669886</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="15">
+        <v>71179181</v>
+      </c>
+      <c r="C16" s="15">
+        <v>62924550</v>
+      </c>
+      <c r="D16" s="15">
+        <v>65837619</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A17" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="15">
+        <v>59550008</v>
+      </c>
+      <c r="C17" s="15">
+        <v>56537224</v>
+      </c>
+      <c r="D17" s="15">
+        <v>56382805</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A18" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="15">
+        <v>52512057</v>
+      </c>
+      <c r="C18" s="15">
+        <v>48209797</v>
+      </c>
+      <c r="D18" s="15">
+        <v>50218839</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A19" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="15">
+        <v>60986212</v>
+      </c>
+      <c r="C19" s="15">
+        <v>54958258</v>
+      </c>
+      <c r="D19" s="15">
+        <v>55656957</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A20" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="15">
+        <v>53660391</v>
+      </c>
+      <c r="C20" s="15">
+        <v>49204614</v>
+      </c>
+      <c r="D20" s="15">
+        <v>41681856</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A21" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="15">
+        <v>68416614</v>
+      </c>
+      <c r="C21" s="15">
+        <v>64956572</v>
+      </c>
+      <c r="D21" s="15">
+        <v>66465249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A22" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="15">
+        <v>57880920</v>
+      </c>
+      <c r="C22" s="15">
+        <v>51431623</v>
+      </c>
+      <c r="D22" s="15">
+        <v>53549826</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A23" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="15">
+        <v>57880920</v>
+      </c>
+      <c r="C23" s="15">
+        <v>48209797</v>
+      </c>
+      <c r="D23" s="15">
+        <v>50218839</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="15">
+        <v>960820604</v>
+      </c>
+      <c r="C24" s="15">
+        <v>816166126</v>
+      </c>
+      <c r="D24" s="15">
+        <v>866915903</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="18.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="18">
+        <v>1010887456</v>
+      </c>
+      <c r="C25" s="18">
+        <v>1001499700</v>
+      </c>
+      <c r="D25" s="18">
+        <v>923795763</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F29" s="19"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="G32" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1374E5B-E37D-404D-AD35-632E1017A0B8}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -889,22 +2150,22 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B5">
-        <v>98.5</v>
+        <v>98.2</v>
       </c>
       <c r="C5">
-        <v>21.7</v>
+        <v>20.6</v>
       </c>
       <c r="D5">
-        <v>76.8</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="E5">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="F5">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="G5">
         <v>4596</v>
@@ -912,19 +2173,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6">
-        <v>98.4</v>
+        <v>98.5</v>
       </c>
       <c r="C6">
-        <v>25.1</v>
+        <v>21.7</v>
       </c>
       <c r="D6">
-        <v>73.3</v>
+        <v>76.8</v>
       </c>
       <c r="E6">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="F6">
         <v>1.4</v>
@@ -935,22 +2196,22 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B7">
-        <v>98.7</v>
+        <v>98.4</v>
       </c>
       <c r="C7">
-        <v>20.100000000000001</v>
+        <v>25.1</v>
       </c>
       <c r="D7">
-        <v>78.599999999999994</v>
+        <v>73.3</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F7">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="G7">
         <v>4596</v>
@@ -958,22 +2219,22 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8">
-        <v>98.4</v>
+        <v>98.7</v>
       </c>
       <c r="C8">
-        <v>22.1</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="D8">
-        <v>76.3</v>
+        <v>78.599999999999994</v>
       </c>
       <c r="E8">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="G8">
         <v>4596</v>
@@ -981,22 +2242,22 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9">
-        <v>98.5</v>
+        <v>98.4</v>
       </c>
       <c r="C9">
-        <v>21.7</v>
+        <v>22.1</v>
       </c>
       <c r="D9">
-        <v>76.8</v>
+        <v>76.3</v>
       </c>
       <c r="E9">
         <v>0.1</v>
       </c>
       <c r="F9">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="G9">
         <v>4596</v>
@@ -1004,22 +2265,22 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B10">
-        <v>98.7</v>
+        <v>98.5</v>
       </c>
       <c r="C10">
-        <v>19.899999999999999</v>
+        <v>21.7</v>
       </c>
       <c r="D10">
-        <v>78.8</v>
+        <v>76.8</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F10">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="G10">
         <v>4596</v>
@@ -1027,24 +2288,47 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B11">
-        <v>98.5</v>
+        <v>98.7</v>
       </c>
       <c r="C11">
-        <v>21.6</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="D11">
-        <v>76.900000000000006</v>
+        <v>78.8</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
+        <v>1.3</v>
+      </c>
+      <c r="G11">
+        <v>4596</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B12">
+        <v>98.5</v>
+      </c>
+      <c r="C12">
+        <v>21.6</v>
+      </c>
+      <c r="D12">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>1.5</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>4596</v>
       </c>
     </row>
@@ -1054,394 +2338,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBF4821-B483-46FA-B2E9-0EDF5C01F089}">
-  <dimension ref="A1:I32"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="24.265625" customWidth="1"/>
-    <col min="2" max="3" width="11.46484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.46484375" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="11.46484375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.46484375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A3" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="15">
-        <v>38004428</v>
-      </c>
-      <c r="C3" s="15">
-        <v>30963416</v>
-      </c>
-      <c r="D3" s="15">
-        <v>32958928</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A4" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="15">
-        <v>35943954</v>
-      </c>
-      <c r="C4" s="15">
-        <v>29581582</v>
-      </c>
-      <c r="D4" s="15">
-        <v>33432960</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A5" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="15">
-        <v>44868710</v>
-      </c>
-      <c r="C5" s="15">
-        <v>38724999</v>
-      </c>
-      <c r="D5" s="15">
-        <v>39685748</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="15">
-        <v>25679024</v>
-      </c>
-      <c r="C6" s="15">
-        <v>22079791</v>
-      </c>
-      <c r="D6" s="15">
-        <v>23101715</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="15">
-        <v>45991561</v>
-      </c>
-      <c r="C7" s="15">
-        <v>29228566</v>
-      </c>
-      <c r="D7" s="15">
-        <v>42112164</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="15">
-        <v>48704706</v>
-      </c>
-      <c r="C8" s="15">
-        <v>28937740</v>
-      </c>
-      <c r="D8" s="15">
-        <v>45146386</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="15">
-        <v>32302721</v>
-      </c>
-      <c r="C9" s="15">
-        <v>28277616</v>
-      </c>
-      <c r="D9" s="15">
-        <v>29390523</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A10" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="15">
-        <v>28329074</v>
-      </c>
-      <c r="C10" s="15">
-        <v>23154485</v>
-      </c>
-      <c r="D10" s="15">
-        <v>26309499</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A11" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="15">
-        <v>65862748</v>
-      </c>
-      <c r="C11" s="15">
-        <v>45044935</v>
-      </c>
-      <c r="D11" s="15">
-        <v>53549826</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="15">
-        <v>26592803</v>
-      </c>
-      <c r="C12" s="15">
-        <v>19559996</v>
-      </c>
-      <c r="D12" s="15">
-        <v>20778245</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A13" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="15">
-        <v>57880920</v>
-      </c>
-      <c r="C13" s="15">
-        <v>51431623</v>
-      </c>
-      <c r="D13" s="15">
-        <v>48239358</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A14" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="15">
-        <v>65293782</v>
-      </c>
-      <c r="C14" s="15">
-        <v>58167434</v>
-      </c>
-      <c r="D14" s="15">
-        <v>62297340</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="15">
-        <v>79061710</v>
-      </c>
-      <c r="C15" s="15">
-        <v>74222928</v>
-      </c>
-      <c r="D15" s="15">
-        <v>73669886</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A16" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="15">
-        <v>71179181</v>
-      </c>
-      <c r="C16" s="15">
-        <v>62924550</v>
-      </c>
-      <c r="D16" s="15">
-        <v>65837619</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A17" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="15">
-        <v>59550008</v>
-      </c>
-      <c r="C17" s="15">
-        <v>56537224</v>
-      </c>
-      <c r="D17" s="15">
-        <v>56382805</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A18" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="15">
-        <v>52512057</v>
-      </c>
-      <c r="C18" s="15">
-        <v>48209797</v>
-      </c>
-      <c r="D18" s="15">
-        <v>50218839</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A19" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="15">
-        <v>60986212</v>
-      </c>
-      <c r="C19" s="15">
-        <v>54958258</v>
-      </c>
-      <c r="D19" s="15">
-        <v>55656957</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A20" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="15">
-        <v>53660391</v>
-      </c>
-      <c r="C20" s="15">
-        <v>49204614</v>
-      </c>
-      <c r="D20" s="15">
-        <v>41681856</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A21" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="15">
-        <v>68416614</v>
-      </c>
-      <c r="C21" s="15">
-        <v>64956572</v>
-      </c>
-      <c r="D21" s="15">
-        <v>66465249</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A22" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="15">
-        <v>57880920</v>
-      </c>
-      <c r="C22" s="15">
-        <v>51431623</v>
-      </c>
-      <c r="D22" s="15">
-        <v>53549826</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A23" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="15">
-        <v>57880920</v>
-      </c>
-      <c r="C23" s="15">
-        <v>48209797</v>
-      </c>
-      <c r="D23" s="15">
-        <v>50218839</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A24" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B24" s="15">
-        <v>960820604</v>
-      </c>
-      <c r="C24" s="15">
-        <v>816166126</v>
-      </c>
-      <c r="D24" s="15">
-        <v>866915903</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="18.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="18">
-        <v>1010887456</v>
-      </c>
-      <c r="C25" s="18">
-        <v>1001499700</v>
-      </c>
-      <c r="D25" s="18">
-        <v>923795763</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="F29" s="19"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="G32" s="19"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E225DD34-2AEF-40F8-90BB-6F23BC70FCCA}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection sqref="A1:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Tables/Assembly_Metrics.xlsx
+++ b/Tables/Assembly_Metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Davis_B_napus_assembly_2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B1F167-A052-4440-8CEB-CDF2F0C9165E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3909C98-8C0F-4E28-9881-41B4B68A95CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40920" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{7AE78679-F949-41F3-A13F-688E2FE30A0E}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="73">
   <si>
     <t>Assembly</t>
   </si>
@@ -298,13 +298,13 @@
     <t xml:space="preserve">  -pa 5 \</t>
   </si>
   <si>
-    <t xml:space="preserve"> The statistics of anchored chromosome length of 3 B. napus genomes</t>
-  </si>
-  <si>
     <t>Darmor-Bzh_V4.1</t>
   </si>
   <si>
     <t>Comparison of the transposable elements among 3 B. napus genomes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The statistics of anchored chromosome length of 4 B. napus genome assemblies</t>
   </si>
 </sst>
 </file>
@@ -494,11 +494,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -825,10 +825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98FC614F-9CA2-46A1-97D1-FE27D06B91B6}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -836,17 +836,19 @@
     <col min="1" max="1" width="21.796875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="15.86328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="24" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
       <c r="D1" s="24"/>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E1" s="24"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -859,8 +861,12 @@
       <c r="D2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E2" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="23"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -873,8 +879,11 @@
       <c r="D3" s="28">
         <v>32958928</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E3" s="28">
+        <v>23267856</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -887,8 +896,11 @@
       <c r="D4" s="28">
         <v>33432960</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E4" s="28">
+        <v>24793737</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -901,8 +913,11 @@
       <c r="D5" s="28">
         <v>39685748</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E5" s="28">
+        <v>29767490</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -915,8 +930,11 @@
       <c r="D6" s="28">
         <v>23101715</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E6" s="28">
+        <v>19151660</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>40</v>
       </c>
@@ -929,8 +947,11 @@
       <c r="D7" s="28">
         <v>42112164</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E7" s="28">
+        <v>23067598</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>41</v>
       </c>
@@ -943,8 +964,11 @@
       <c r="D8" s="28">
         <v>45146386</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E8" s="28">
+        <v>24396386</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -957,8 +981,11 @@
       <c r="D9" s="28">
         <v>29390523</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E9" s="28">
+        <v>24006521</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -971,8 +998,11 @@
       <c r="D10" s="28">
         <v>26309499</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E10" s="28">
+        <v>18961941</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -985,8 +1015,11 @@
       <c r="D11" s="28">
         <v>53549826</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E11" s="28">
+        <v>33865340</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>45</v>
       </c>
@@ -999,8 +1032,11 @@
       <c r="D12" s="28">
         <v>20778245</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E12" s="28">
+        <v>17398227</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -1013,8 +1049,11 @@
       <c r="D13" s="28">
         <v>48239358</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E13" s="28">
+        <v>38829317</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1027,8 +1066,11 @@
       <c r="D14" s="28">
         <v>62297340</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E14" s="28">
+        <v>46221804</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -1041,8 +1083,11 @@
       <c r="D15" s="28">
         <v>73669886</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E15" s="28">
+        <v>60573394</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -1055,8 +1100,11 @@
       <c r="D16" s="28">
         <v>65837619</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E16" s="28">
+        <v>48930237</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>50</v>
       </c>
@@ -1069,8 +1117,11 @@
       <c r="D17" s="28">
         <v>56382805</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E17" s="28">
+        <v>43185227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -1083,8 +1134,11 @@
       <c r="D18" s="28">
         <v>50218839</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E18" s="28">
+        <v>37225952</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>52</v>
       </c>
@@ -1097,8 +1151,11 @@
       <c r="D19" s="28">
         <v>55656957</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E19" s="28">
+        <v>44770477</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -1111,8 +1168,11 @@
       <c r="D20" s="28">
         <v>41681856</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E20" s="28">
+        <v>38477087</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>54</v>
       </c>
@@ -1125,8 +1185,11 @@
       <c r="D21" s="28">
         <v>66465249</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E21" s="28">
+        <v>48508220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>60</v>
       </c>
@@ -1139,8 +1202,11 @@
       <c r="D22" s="28">
         <v>53549826</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E22" s="28">
+        <v>38829317</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>61</v>
       </c>
@@ -1153,8 +1219,11 @@
       <c r="D23" s="28">
         <v>50218839</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E23" s="28">
+        <v>38829317</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -1167,8 +1236,11 @@
       <c r="D24" s="28">
         <v>866915903</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="E24" s="28">
+        <v>645398471</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -1181,10 +1253,13 @@
       <c r="D25" s="28">
         <v>923795763</v>
       </c>
+      <c r="E25" s="28">
+        <v>850292103</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1196,7 +1271,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:G5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1304,7 +1379,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5">
         <v>98.2</v>
@@ -1335,7 +1410,7 @@
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection sqref="A1:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1351,25 +1426,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="26" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23" t="s">
+      <c r="C2" s="24"/>
+      <c r="D2" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23" t="s">
+      <c r="E2" s="24"/>
+      <c r="F2" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="23"/>
+      <c r="G2" s="24"/>
     </row>
     <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="25"/>
@@ -2150,7 +2225,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5">
         <v>98.2</v>
@@ -2343,7 +2418,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <selection sqref="A1:G14"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Tables/Assembly_Metrics.xlsx
+++ b/Tables/Assembly_Metrics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Davis_B_napus_assembly_2022\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3909C98-8C0F-4E28-9881-41B4B68A95CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E357DC4-035D-4551-8F1F-35C72D6F4AC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40920" yWindow="-120" windowWidth="19440" windowHeight="15000" xr2:uid="{7AE78679-F949-41F3-A13F-688E2FE30A0E}"/>
   </bookViews>
@@ -16,9 +16,11 @@
     <sheet name="Table 1 (Anchored Chromosome)" sheetId="4" r:id="rId1"/>
     <sheet name="Table 2 (BUSCOs)" sheetId="5" r:id="rId2"/>
     <sheet name="Table 3 (TE Content)" sheetId="6" r:id="rId3"/>
-    <sheet name="Anchored Chromosomes" sheetId="3" r:id="rId4"/>
-    <sheet name="BUSCOs" sheetId="1" r:id="rId5"/>
-    <sheet name="TE Content" sheetId="2" r:id="rId6"/>
+    <sheet name="Table 5 BUSCOs 2" sheetId="8" r:id="rId4"/>
+    <sheet name="Anchored Chromosomes" sheetId="3" r:id="rId5"/>
+    <sheet name="Draft Assemblies" sheetId="9" r:id="rId6"/>
+    <sheet name="BUSCOs" sheetId="1" r:id="rId7"/>
+    <sheet name="TE Content" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="92">
   <si>
     <t>Assembly</t>
   </si>
@@ -304,7 +306,110 @@
     <t>Comparison of the transposable elements among 3 B. napus genomes</t>
   </si>
   <si>
-    <t xml:space="preserve"> The statistics of anchored chromosome length of 4 B. napus genome assemblies</t>
+    <t xml:space="preserve"> Quinta  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  No2127  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Westar  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Tapidor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Gangan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Shengli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Zheyou7  </t>
+  </si>
+  <si>
+    <t>Total scaffolds</t>
+  </si>
+  <si>
+    <t>Zheyou</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> The statistics of anchored chromosome length of 11 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>B. napus</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> assemblies</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> The BUSCO (%) statistics of 11 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>B. napus</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> assemblies</t>
+    </r>
+  </si>
+  <si>
+    <t>N50 (Mbp)</t>
+  </si>
+  <si>
+    <t>Sequences</t>
+  </si>
+  <si>
+    <t>Total Length (Mbp)</t>
+  </si>
+  <si>
+    <t>Total Unambiguous Length (Mbp)</t>
+  </si>
+  <si>
+    <t>Assembly statistics of intermediate assemblies</t>
+  </si>
+  <si>
+    <t>DaAe Dovetail Pilon Canu</t>
+  </si>
+  <si>
+    <t>DaAe Canu</t>
+  </si>
+  <si>
+    <t>DaAe Pilon Canu</t>
+  </si>
+  <si>
+    <t>DaAe Final</t>
   </si>
 </sst>
 </file>
@@ -312,9 +417,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0_ "/>
     <numFmt numFmtId="165" formatCode="0.00_ "/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -365,6 +470,7 @@
       <family val="1"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -372,9 +478,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -426,11 +531,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -487,32 +591,78 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -825,10 +975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98FC614F-9CA2-46A1-97D1-FE27D06B91B6}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -837,430 +987,973 @@
     <col min="2" max="3" width="15.86328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.53125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="11.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="F2" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="L2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="F2" s="23"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="15">
+        <v>30963416</v>
+      </c>
+      <c r="C3" s="15">
+        <v>23267856</v>
+      </c>
+      <c r="D3" s="15">
+        <v>32958928</v>
+      </c>
+      <c r="E3" s="19">
+        <v>34049429</v>
+      </c>
+      <c r="F3" s="19">
+        <v>34418524</v>
+      </c>
+      <c r="G3" s="19">
+        <v>34072108</v>
+      </c>
+      <c r="H3" s="19">
+        <v>33385296</v>
+      </c>
+      <c r="I3" s="19">
+        <v>36624584</v>
+      </c>
+      <c r="J3" s="19">
+        <v>36358838</v>
+      </c>
+      <c r="K3" s="19">
+        <v>34646657</v>
+      </c>
+      <c r="L3" s="15">
         <v>38004428</v>
       </c>
-      <c r="C3" s="28">
-        <v>30963416</v>
-      </c>
-      <c r="D3" s="28">
-        <v>32958928</v>
-      </c>
-      <c r="E3" s="28">
-        <v>23267856</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A4" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="15">
+        <v>29581582</v>
+      </c>
+      <c r="C4" s="15">
+        <v>24793737</v>
+      </c>
+      <c r="D4" s="15">
+        <v>33432960</v>
+      </c>
+      <c r="E4" s="19">
+        <v>31833343</v>
+      </c>
+      <c r="F4" s="19">
+        <v>35184156</v>
+      </c>
+      <c r="G4" s="19">
+        <v>35445817</v>
+      </c>
+      <c r="H4" s="19">
+        <v>33310329</v>
+      </c>
+      <c r="I4" s="19">
+        <v>34912047</v>
+      </c>
+      <c r="J4" s="19">
+        <v>36815669</v>
+      </c>
+      <c r="K4" s="19">
+        <v>38454144</v>
+      </c>
+      <c r="L4" s="15">
         <v>35943954</v>
       </c>
-      <c r="C4" s="28">
-        <v>29581582</v>
-      </c>
-      <c r="D4" s="28">
-        <v>33432960</v>
-      </c>
-      <c r="E4" s="28">
-        <v>24793737</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A5" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="15">
+        <v>38724999</v>
+      </c>
+      <c r="C5" s="15">
+        <v>29767490</v>
+      </c>
+      <c r="D5" s="15">
+        <v>39685748</v>
+      </c>
+      <c r="E5" s="19">
+        <v>44229005</v>
+      </c>
+      <c r="F5" s="19">
+        <v>44024636</v>
+      </c>
+      <c r="G5" s="19">
+        <v>45938915</v>
+      </c>
+      <c r="H5" s="19">
+        <v>45374774</v>
+      </c>
+      <c r="I5" s="19">
+        <v>42633929</v>
+      </c>
+      <c r="J5" s="19">
+        <v>40627569</v>
+      </c>
+      <c r="K5" s="19">
+        <v>46180332</v>
+      </c>
+      <c r="L5" s="15">
         <v>44868710</v>
       </c>
-      <c r="C5" s="28">
-        <v>38724999</v>
-      </c>
-      <c r="D5" s="28">
-        <v>39685748</v>
-      </c>
-      <c r="E5" s="28">
-        <v>29767490</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A6" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="15">
+        <v>22079791</v>
+      </c>
+      <c r="C6" s="15">
+        <v>19151660</v>
+      </c>
+      <c r="D6" s="15">
+        <v>23101715</v>
+      </c>
+      <c r="E6" s="19">
+        <v>24995428</v>
+      </c>
+      <c r="F6" s="19">
+        <v>21150623</v>
+      </c>
+      <c r="G6" s="19">
+        <v>24941254</v>
+      </c>
+      <c r="H6" s="19">
+        <v>22742991</v>
+      </c>
+      <c r="I6" s="19">
+        <v>22175112</v>
+      </c>
+      <c r="J6" s="19">
+        <v>17977365</v>
+      </c>
+      <c r="K6" s="19">
+        <v>18425376</v>
+      </c>
+      <c r="L6" s="15">
         <v>25679024</v>
       </c>
-      <c r="C6" s="28">
-        <v>22079791</v>
-      </c>
-      <c r="D6" s="28">
-        <v>23101715</v>
-      </c>
-      <c r="E6" s="28">
-        <v>19151660</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A7" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="15">
+        <v>29228566</v>
+      </c>
+      <c r="C7" s="15">
+        <v>23067598</v>
+      </c>
+      <c r="D7" s="15">
+        <v>42112164</v>
+      </c>
+      <c r="E7" s="19">
+        <v>40081539</v>
+      </c>
+      <c r="F7" s="19">
+        <v>42988262</v>
+      </c>
+      <c r="G7" s="19">
+        <v>43898138</v>
+      </c>
+      <c r="H7" s="19">
+        <v>41389975</v>
+      </c>
+      <c r="I7" s="19">
+        <v>37886159</v>
+      </c>
+      <c r="J7" s="19">
+        <v>42946112</v>
+      </c>
+      <c r="K7" s="19">
+        <v>44454297</v>
+      </c>
+      <c r="L7" s="15">
         <v>45991561</v>
       </c>
-      <c r="C7" s="28">
-        <v>29228566</v>
-      </c>
-      <c r="D7" s="28">
-        <v>42112164</v>
-      </c>
-      <c r="E7" s="28">
-        <v>23067598</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A8" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="15">
+        <v>28937740</v>
+      </c>
+      <c r="C8" s="15">
+        <v>24396386</v>
+      </c>
+      <c r="D8" s="15">
+        <v>45146386</v>
+      </c>
+      <c r="E8" s="19">
+        <v>46545620</v>
+      </c>
+      <c r="F8" s="19">
+        <v>47152155</v>
+      </c>
+      <c r="G8" s="19">
+        <v>46607869</v>
+      </c>
+      <c r="H8" s="19">
+        <v>50976723</v>
+      </c>
+      <c r="I8" s="19">
+        <v>43921364</v>
+      </c>
+      <c r="J8" s="19">
+        <v>47226390</v>
+      </c>
+      <c r="K8" s="19">
+        <v>45572147</v>
+      </c>
+      <c r="L8" s="15">
         <v>48704706</v>
       </c>
-      <c r="C8" s="28">
-        <v>28937740</v>
-      </c>
-      <c r="D8" s="28">
-        <v>45146386</v>
-      </c>
-      <c r="E8" s="28">
-        <v>24396386</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A9" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="15">
+        <v>28277616</v>
+      </c>
+      <c r="C9" s="15">
+        <v>24006521</v>
+      </c>
+      <c r="D9" s="15">
+        <v>29390523</v>
+      </c>
+      <c r="E9" s="19">
+        <v>29069541</v>
+      </c>
+      <c r="F9" s="19">
+        <v>29386911</v>
+      </c>
+      <c r="G9" s="19">
+        <v>32489665</v>
+      </c>
+      <c r="H9" s="19">
+        <v>31880213</v>
+      </c>
+      <c r="I9" s="19">
+        <v>37845779</v>
+      </c>
+      <c r="J9" s="19">
+        <v>32247771</v>
+      </c>
+      <c r="K9" s="19">
+        <v>28254355</v>
+      </c>
+      <c r="L9" s="15">
         <v>32302721</v>
       </c>
-      <c r="C9" s="28">
-        <v>28277616</v>
-      </c>
-      <c r="D9" s="28">
-        <v>29390523</v>
-      </c>
-      <c r="E9" s="28">
-        <v>24006521</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A10" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="15">
+        <v>23154485</v>
+      </c>
+      <c r="C10" s="15">
+        <v>18961941</v>
+      </c>
+      <c r="D10" s="15">
+        <v>26309499</v>
+      </c>
+      <c r="E10" s="19">
+        <v>28540401</v>
+      </c>
+      <c r="F10" s="19">
+        <v>27050200</v>
+      </c>
+      <c r="G10" s="19">
+        <v>27113445</v>
+      </c>
+      <c r="H10" s="19">
+        <v>27789865</v>
+      </c>
+      <c r="I10" s="19">
+        <v>31072007</v>
+      </c>
+      <c r="J10" s="19">
+        <v>30634953</v>
+      </c>
+      <c r="K10" s="19">
+        <v>26738762</v>
+      </c>
+      <c r="L10" s="15">
         <v>28329074</v>
       </c>
-      <c r="C10" s="28">
-        <v>23154485</v>
-      </c>
-      <c r="D10" s="28">
-        <v>26309499</v>
-      </c>
-      <c r="E10" s="28">
-        <v>18961941</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A11" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="15">
+        <v>45044935</v>
+      </c>
+      <c r="C11" s="15">
+        <v>33865340</v>
+      </c>
+      <c r="D11" s="15">
+        <v>53549826</v>
+      </c>
+      <c r="E11" s="19">
+        <v>69118063</v>
+      </c>
+      <c r="F11" s="19">
+        <v>68282462</v>
+      </c>
+      <c r="G11" s="19">
+        <v>67849243</v>
+      </c>
+      <c r="H11" s="19">
+        <v>63820574</v>
+      </c>
+      <c r="I11" s="19">
+        <v>69520783</v>
+      </c>
+      <c r="J11" s="19">
+        <v>69970591</v>
+      </c>
+      <c r="K11" s="19">
+        <v>64447344</v>
+      </c>
+      <c r="L11" s="15">
         <v>65862748</v>
       </c>
-      <c r="C11" s="28">
-        <v>45044935</v>
-      </c>
-      <c r="D11" s="28">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A12" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="15">
+        <v>19559996</v>
+      </c>
+      <c r="C12" s="15">
+        <v>17398227</v>
+      </c>
+      <c r="D12" s="15">
+        <v>20778245</v>
+      </c>
+      <c r="E12" s="19">
+        <v>24204787</v>
+      </c>
+      <c r="F12" s="19">
+        <v>21441692</v>
+      </c>
+      <c r="G12" s="19">
+        <v>26564201</v>
+      </c>
+      <c r="H12" s="19">
+        <v>25274410</v>
+      </c>
+      <c r="I12" s="19">
+        <v>24379196</v>
+      </c>
+      <c r="J12" s="19">
+        <v>20220739</v>
+      </c>
+      <c r="K12" s="19">
+        <v>24607451</v>
+      </c>
+      <c r="L12" s="15">
+        <v>26592803</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A13" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="15">
+        <v>51431623</v>
+      </c>
+      <c r="C13" s="15">
+        <v>38829317</v>
+      </c>
+      <c r="D13" s="15">
+        <v>48239358</v>
+      </c>
+      <c r="E13" s="19">
+        <v>49844256</v>
+      </c>
+      <c r="F13" s="19">
+        <v>48500495</v>
+      </c>
+      <c r="G13" s="19">
+        <v>55568513</v>
+      </c>
+      <c r="H13" s="19">
+        <v>50976155</v>
+      </c>
+      <c r="I13" s="19">
+        <v>56937391</v>
+      </c>
+      <c r="J13" s="19">
+        <v>53237480</v>
+      </c>
+      <c r="K13" s="19">
+        <v>50906239</v>
+      </c>
+      <c r="L13" s="15">
+        <v>57880920</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A14" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="15">
+        <v>58167434</v>
+      </c>
+      <c r="C14" s="15">
+        <v>46221804</v>
+      </c>
+      <c r="D14" s="15">
+        <v>62297340</v>
+      </c>
+      <c r="E14" s="19">
+        <v>66774423</v>
+      </c>
+      <c r="F14" s="19">
+        <v>63747864</v>
+      </c>
+      <c r="G14" s="19">
+        <v>65831886</v>
+      </c>
+      <c r="H14" s="19">
+        <v>60608700</v>
+      </c>
+      <c r="I14" s="19">
+        <v>62611365</v>
+      </c>
+      <c r="J14" s="19">
+        <v>59402795</v>
+      </c>
+      <c r="K14" s="19">
+        <v>52853804</v>
+      </c>
+      <c r="L14" s="15">
+        <v>65293782</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A15" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="15">
+        <v>74222928</v>
+      </c>
+      <c r="C15" s="15">
+        <v>60573394</v>
+      </c>
+      <c r="D15" s="15">
+        <v>73669886</v>
+      </c>
+      <c r="E15" s="19">
+        <v>79398332</v>
+      </c>
+      <c r="F15" s="19">
+        <v>71696257</v>
+      </c>
+      <c r="G15" s="19">
+        <v>72844319</v>
+      </c>
+      <c r="H15" s="19">
+        <v>77070395</v>
+      </c>
+      <c r="I15" s="19">
+        <v>79770199</v>
+      </c>
+      <c r="J15" s="19">
+        <v>73374125</v>
+      </c>
+      <c r="K15" s="19">
+        <v>75927486</v>
+      </c>
+      <c r="L15" s="15">
+        <v>79061710</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A16" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="15">
+        <v>62924550</v>
+      </c>
+      <c r="C16" s="15">
+        <v>48930237</v>
+      </c>
+      <c r="D16" s="15">
+        <v>65837619</v>
+      </c>
+      <c r="E16" s="19">
+        <v>62271373</v>
+      </c>
+      <c r="F16" s="19">
+        <v>68372639</v>
+      </c>
+      <c r="G16" s="19">
+        <v>71968714</v>
+      </c>
+      <c r="H16" s="19">
+        <v>67448363</v>
+      </c>
+      <c r="I16" s="19">
+        <v>64192264</v>
+      </c>
+      <c r="J16" s="19">
+        <v>72788439</v>
+      </c>
+      <c r="K16" s="19">
+        <v>67164483</v>
+      </c>
+      <c r="L16" s="15">
+        <v>71179181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="15">
+        <v>56537224</v>
+      </c>
+      <c r="C17" s="15">
+        <v>43185227</v>
+      </c>
+      <c r="D17" s="15">
+        <v>56382805</v>
+      </c>
+      <c r="E17" s="19">
+        <v>57344646</v>
+      </c>
+      <c r="F17" s="19">
+        <v>59684040</v>
+      </c>
+      <c r="G17" s="19">
+        <v>59594324</v>
+      </c>
+      <c r="H17" s="19">
+        <v>55324214</v>
+      </c>
+      <c r="I17" s="19">
+        <v>59804570</v>
+      </c>
+      <c r="J17" s="19">
+        <v>55526125</v>
+      </c>
+      <c r="K17" s="19">
+        <v>60477792</v>
+      </c>
+      <c r="L17" s="15">
+        <v>59550008</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="15">
+        <v>48209797</v>
+      </c>
+      <c r="C18" s="15">
+        <v>37225952</v>
+      </c>
+      <c r="D18" s="15">
+        <v>50218839</v>
+      </c>
+      <c r="E18" s="19">
+        <v>52702447</v>
+      </c>
+      <c r="F18" s="19">
+        <v>52092031</v>
+      </c>
+      <c r="G18" s="19">
+        <v>52822278</v>
+      </c>
+      <c r="H18" s="19">
+        <v>52406678</v>
+      </c>
+      <c r="I18" s="19">
+        <v>46598512</v>
+      </c>
+      <c r="J18" s="19">
+        <v>52241597</v>
+      </c>
+      <c r="K18" s="19">
+        <v>52102359</v>
+      </c>
+      <c r="L18" s="15">
+        <v>52512057</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A19" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B19" s="15">
+        <v>54958258</v>
+      </c>
+      <c r="C19" s="15">
+        <v>44770477</v>
+      </c>
+      <c r="D19" s="15">
+        <v>55656957</v>
+      </c>
+      <c r="E19" s="19">
+        <v>59821549</v>
+      </c>
+      <c r="F19" s="19">
+        <v>59911058</v>
+      </c>
+      <c r="G19" s="19">
+        <v>55243557</v>
+      </c>
+      <c r="H19" s="19">
+        <v>61376810</v>
+      </c>
+      <c r="I19" s="19">
+        <v>60504736</v>
+      </c>
+      <c r="J19" s="19">
+        <v>57612675</v>
+      </c>
+      <c r="K19" s="19">
+        <v>60142069</v>
+      </c>
+      <c r="L19" s="15">
+        <v>60986212</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A20" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="15">
+        <v>49204614</v>
+      </c>
+      <c r="C20" s="15">
+        <v>38477087</v>
+      </c>
+      <c r="D20" s="15">
+        <v>41681856</v>
+      </c>
+      <c r="E20" s="19">
+        <v>55907613</v>
+      </c>
+      <c r="F20" s="19">
+        <v>53895350</v>
+      </c>
+      <c r="G20" s="19">
+        <v>51700037</v>
+      </c>
+      <c r="H20" s="19">
+        <v>53000817</v>
+      </c>
+      <c r="I20" s="19">
+        <v>46677179</v>
+      </c>
+      <c r="J20" s="19">
+        <v>52530734</v>
+      </c>
+      <c r="K20" s="19">
+        <v>50112630</v>
+      </c>
+      <c r="L20" s="15">
+        <v>53660391</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A21" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="15">
+        <v>64956572</v>
+      </c>
+      <c r="C21" s="15">
+        <v>48508220</v>
+      </c>
+      <c r="D21" s="15">
+        <v>66465249</v>
+      </c>
+      <c r="E21" s="19">
+        <v>63235258</v>
+      </c>
+      <c r="F21" s="19">
+        <v>61068053</v>
+      </c>
+      <c r="G21" s="19">
+        <v>64409414</v>
+      </c>
+      <c r="H21" s="19">
+        <v>66565279</v>
+      </c>
+      <c r="I21" s="19">
+        <v>63602739</v>
+      </c>
+      <c r="J21" s="19">
+        <v>56715283</v>
+      </c>
+      <c r="K21" s="19">
+        <v>65173479</v>
+      </c>
+      <c r="L21" s="15">
+        <v>68416614</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A22" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="15">
+        <v>51431623</v>
+      </c>
+      <c r="C22" s="15">
+        <v>38829317</v>
+      </c>
+      <c r="D22" s="15">
         <v>53549826</v>
       </c>
-      <c r="E11" s="28">
-        <v>33865340</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="28">
-        <v>26592803</v>
-      </c>
-      <c r="C12" s="28">
-        <v>19559996</v>
-      </c>
-      <c r="D12" s="28">
-        <v>20778245</v>
-      </c>
-      <c r="E12" s="28">
-        <v>17398227</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B13" s="28">
+      <c r="E22" s="19">
+        <v>55907613</v>
+      </c>
+      <c r="F22" s="19">
+        <v>53895350</v>
+      </c>
+      <c r="G22" s="19">
+        <v>55243557</v>
+      </c>
+      <c r="H22" s="19">
+        <v>53000817</v>
+      </c>
+      <c r="I22" s="19">
+        <v>56937391</v>
+      </c>
+      <c r="J22" s="19">
+        <v>53237480</v>
+      </c>
+      <c r="K22" s="19">
+        <v>52102359</v>
+      </c>
+      <c r="L22" s="15">
         <v>57880920</v>
       </c>
-      <c r="C13" s="28">
-        <v>51431623</v>
-      </c>
-      <c r="D13" s="28">
-        <v>48239358</v>
-      </c>
-      <c r="E13" s="28">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A23" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="15">
+        <v>48209797</v>
+      </c>
+      <c r="C23" s="15">
         <v>38829317</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" s="28">
-        <v>65293782</v>
-      </c>
-      <c r="C14" s="28">
-        <v>58167434</v>
-      </c>
-      <c r="D14" s="28">
-        <v>62297340</v>
-      </c>
-      <c r="E14" s="28">
-        <v>46221804</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="28">
-        <v>79061710</v>
-      </c>
-      <c r="C15" s="28">
-        <v>74222928</v>
-      </c>
-      <c r="D15" s="28">
-        <v>73669886</v>
-      </c>
-      <c r="E15" s="28">
-        <v>60573394</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="28">
-        <v>71179181</v>
-      </c>
-      <c r="C16" s="28">
-        <v>62924550</v>
-      </c>
-      <c r="D16" s="28">
-        <v>65837619</v>
-      </c>
-      <c r="E16" s="28">
-        <v>48930237</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" s="28">
-        <v>59550008</v>
-      </c>
-      <c r="C17" s="28">
-        <v>56537224</v>
-      </c>
-      <c r="D17" s="28">
-        <v>56382805</v>
-      </c>
-      <c r="E17" s="28">
-        <v>43185227</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="28">
-        <v>52512057</v>
-      </c>
-      <c r="C18" s="28">
-        <v>48209797</v>
-      </c>
-      <c r="D18" s="28">
+      <c r="D23" s="15">
         <v>50218839</v>
       </c>
-      <c r="E18" s="28">
-        <v>37225952</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A19" t="s">
-        <v>52</v>
-      </c>
-      <c r="B19" s="28">
-        <v>60986212</v>
-      </c>
-      <c r="C19" s="28">
-        <v>54958258</v>
-      </c>
-      <c r="D19" s="28">
-        <v>55656957</v>
-      </c>
-      <c r="E19" s="28">
-        <v>44770477</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="28">
-        <v>53660391</v>
-      </c>
-      <c r="C20" s="28">
-        <v>49204614</v>
-      </c>
-      <c r="D20" s="28">
-        <v>41681856</v>
-      </c>
-      <c r="E20" s="28">
-        <v>38477087</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="28">
-        <v>68416614</v>
-      </c>
-      <c r="C21" s="28">
-        <v>64956572</v>
-      </c>
-      <c r="D21" s="28">
-        <v>66465249</v>
-      </c>
-      <c r="E21" s="28">
-        <v>48508220</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="28">
+      <c r="E23" s="19">
+        <v>55907613</v>
+      </c>
+      <c r="F23" s="19">
+        <v>53895350</v>
+      </c>
+      <c r="G23" s="19">
+        <v>55243557</v>
+      </c>
+      <c r="H23" s="19">
+        <v>52406678</v>
+      </c>
+      <c r="I23" s="19">
+        <v>46677179</v>
+      </c>
+      <c r="J23" s="19">
+        <v>52530734</v>
+      </c>
+      <c r="K23" s="19">
+        <v>50906239</v>
+      </c>
+      <c r="L23" s="15">
         <v>57880920</v>
       </c>
-      <c r="C22" s="28">
-        <v>51431623</v>
-      </c>
-      <c r="D22" s="28">
-        <v>53549826</v>
-      </c>
-      <c r="E22" s="28">
-        <v>38829317</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="28">
-        <v>57880920</v>
-      </c>
-      <c r="C23" s="28">
-        <v>48209797</v>
-      </c>
-      <c r="D23" s="28">
-        <v>50218839</v>
-      </c>
-      <c r="E23" s="28">
-        <v>38829317</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A24" t="s">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A24" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="28">
+      <c r="B24" s="15">
+        <v>816166126</v>
+      </c>
+      <c r="C24" s="15">
+        <v>645398471</v>
+      </c>
+      <c r="D24" s="15">
+        <v>866915903</v>
+      </c>
+      <c r="E24" s="15">
+        <v>919967053</v>
+      </c>
+      <c r="F24" s="15">
+        <v>910047408</v>
+      </c>
+      <c r="G24" s="15">
+        <v>934903697</v>
+      </c>
+      <c r="H24" s="15">
+        <v>920722561</v>
+      </c>
+      <c r="I24" s="15">
+        <v>921669915</v>
+      </c>
+      <c r="J24" s="15">
+        <v>908455250</v>
+      </c>
+      <c r="K24" s="15">
+        <v>906641206</v>
+      </c>
+      <c r="L24" s="15">
         <v>960820604</v>
       </c>
-      <c r="C24" s="28">
-        <v>816166126</v>
-      </c>
-      <c r="D24" s="28">
-        <v>866915903</v>
-      </c>
-      <c r="E24" s="28">
-        <v>645398471</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A25" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="15">
+        <v>3164</v>
+      </c>
+      <c r="C25" s="15">
+        <v>41</v>
+      </c>
+      <c r="D25" s="15">
+        <v>237</v>
+      </c>
+      <c r="E25" s="15">
+        <v>3722</v>
+      </c>
+      <c r="F25" s="15">
+        <v>3733</v>
+      </c>
+      <c r="G25" s="15">
+        <v>3458</v>
+      </c>
+      <c r="H25" s="15">
+        <v>3566</v>
+      </c>
+      <c r="I25" s="15">
+        <v>4930</v>
+      </c>
+      <c r="J25" s="15">
+        <v>3802</v>
+      </c>
+      <c r="K25" s="15">
+        <v>4990</v>
+      </c>
+      <c r="L25" s="15">
+        <v>3332</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="28">
+      <c r="B26" s="18">
+        <v>1001499700</v>
+      </c>
+      <c r="C26" s="18">
+        <v>923795763</v>
+      </c>
+      <c r="D26" s="18">
+        <v>923795763</v>
+      </c>
+      <c r="E26" s="18">
+        <v>1004262373</v>
+      </c>
+      <c r="F26" s="18">
+        <v>1012393425</v>
+      </c>
+      <c r="G26" s="18">
+        <v>1008283116</v>
+      </c>
+      <c r="H26" s="18">
+        <v>1014411283</v>
+      </c>
+      <c r="I26" s="18">
+        <v>1034272646</v>
+      </c>
+      <c r="J26" s="18">
+        <v>1002553391</v>
+      </c>
+      <c r="K26" s="18">
+        <v>1016238606</v>
+      </c>
+      <c r="L26" s="18">
         <v>1010887456</v>
       </c>
-      <c r="C25" s="28">
-        <v>1001499700</v>
-      </c>
-      <c r="D25" s="28">
-        <v>923795763</v>
-      </c>
-      <c r="E25" s="28">
-        <v>850292103</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1268,10 +1961,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7574E31A-7B3A-4EAE-8125-1A977C69FD09}">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B3" sqref="B3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1285,123 +1978,298 @@
     <col min="7" max="7" width="8.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+    </row>
+    <row r="2" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G2" s="27" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="B3" s="28">
         <v>98.5</v>
       </c>
-      <c r="C2">
+      <c r="C3" s="28">
         <v>18</v>
       </c>
-      <c r="D2">
+      <c r="D3" s="28">
         <v>80.5</v>
       </c>
-      <c r="E2">
+      <c r="E3" s="28">
         <v>0.2</v>
       </c>
-      <c r="F2">
+      <c r="F3" s="28">
         <v>1.3</v>
       </c>
-      <c r="G2">
+      <c r="G3" s="21">
         <v>4596</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="28">
+        <v>98.2</v>
+      </c>
+      <c r="C4" s="28">
+        <v>20.6</v>
+      </c>
+      <c r="D4" s="28">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="E4" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="F4" s="28">
+        <v>1.6</v>
+      </c>
+      <c r="G4" s="21">
+        <v>4596</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="28">
+        <v>98.5</v>
+      </c>
+      <c r="C5" s="28">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="D5" s="28">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="E5" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="28">
+        <v>1.4</v>
+      </c>
+      <c r="G5" s="21">
+        <v>4596</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A6" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="28">
+        <v>98.7</v>
+      </c>
+      <c r="C6" s="28">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="D6" s="28">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="E6" s="28">
+        <v>0</v>
+      </c>
+      <c r="F6" s="28">
+        <v>1.3</v>
+      </c>
+      <c r="G6" s="21">
+        <v>4596</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="28">
+        <v>98.4</v>
+      </c>
+      <c r="C7" s="28">
+        <v>25.1</v>
+      </c>
+      <c r="D7" s="28">
+        <v>73.3</v>
+      </c>
+      <c r="E7" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="F7" s="28">
+        <v>1.4</v>
+      </c>
+      <c r="G7" s="21">
+        <v>4596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="28">
+        <v>98.7</v>
+      </c>
+      <c r="C8" s="28">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D8" s="28">
+        <v>78.8</v>
+      </c>
+      <c r="E8" s="28">
+        <v>0</v>
+      </c>
+      <c r="F8" s="28">
+        <v>1.3</v>
+      </c>
+      <c r="G8" s="21">
+        <v>4596</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="28">
+        <v>98.5</v>
+      </c>
+      <c r="C9" s="28">
+        <v>21.7</v>
+      </c>
+      <c r="D9" s="28">
+        <v>76.8</v>
+      </c>
+      <c r="E9" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="28">
+        <v>1.4</v>
+      </c>
+      <c r="G9" s="21">
+        <v>4596</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="28">
+        <v>98.5</v>
+      </c>
+      <c r="C10" s="28">
+        <v>21.7</v>
+      </c>
+      <c r="D10" s="28">
+        <v>76.8</v>
+      </c>
+      <c r="E10" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="F10" s="28">
+        <v>1.4</v>
+      </c>
+      <c r="G10" s="21">
+        <v>4596</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="28">
+        <v>98.4</v>
+      </c>
+      <c r="C11" s="28">
+        <v>22.1</v>
+      </c>
+      <c r="D11" s="28">
+        <v>76.3</v>
+      </c>
+      <c r="E11" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="F11" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="G11" s="21">
+        <v>4596</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="28">
+        <v>98.5</v>
+      </c>
+      <c r="C12" s="28">
+        <v>21.6</v>
+      </c>
+      <c r="D12" s="28">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="E12" s="28">
+        <v>0</v>
+      </c>
+      <c r="F12" s="28">
+        <v>1.5</v>
+      </c>
+      <c r="G12" s="21">
+        <v>4596</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="B13" s="30">
         <v>98.5</v>
       </c>
-      <c r="C3">
+      <c r="C13" s="30">
         <v>19.899999999999999</v>
       </c>
-      <c r="D3">
+      <c r="D13" s="30">
         <v>78.599999999999994</v>
       </c>
-      <c r="E3">
+      <c r="E13" s="30">
         <v>0.1</v>
       </c>
-      <c r="F3">
+      <c r="F13" s="30">
         <v>1.4</v>
       </c>
-      <c r="G3">
-        <v>4596</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4">
-        <v>98.5</v>
-      </c>
-      <c r="C4">
-        <v>19.600000000000001</v>
-      </c>
-      <c r="D4">
-        <v>78.900000000000006</v>
-      </c>
-      <c r="E4">
-        <v>0.1</v>
-      </c>
-      <c r="F4">
-        <v>1.4</v>
-      </c>
-      <c r="G4">
-        <v>4596</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5">
-        <v>98.2</v>
-      </c>
-      <c r="C5">
-        <v>20.6</v>
-      </c>
-      <c r="D5">
-        <v>77.599999999999994</v>
-      </c>
-      <c r="E5">
-        <v>0.2</v>
-      </c>
-      <c r="F5">
-        <v>1.6</v>
-      </c>
-      <c r="G5">
+      <c r="G13" s="29">
         <v>4596</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1425,50 +2293,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="22" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="24"/>
+      <c r="G2" s="41"/>
     </row>
     <row r="3" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="25"/>
+      <c r="A3" s="21"/>
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="27" t="s">
+      <c r="G3" s="23" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="22" t="s">
         <v>12</v>
       </c>
       <c r="B4">
@@ -1478,20 +2346,20 @@
         <v>27.947251107514059</v>
       </c>
       <c r="D4">
+        <v>234603345</v>
+      </c>
+      <c r="E4">
+        <v>25.395585734029829</v>
+      </c>
+      <c r="F4">
         <v>301651364</v>
       </c>
-      <c r="E4">
+      <c r="G4">
         <v>29.840251969651504</v>
       </c>
-      <c r="F4">
-        <v>234603345</v>
-      </c>
-      <c r="G4">
-        <v>25.395585734029829</v>
-      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B5">
@@ -1501,20 +2369,20 @@
         <v>3.7536905902218448E-2</v>
       </c>
       <c r="D5">
+        <v>67012</v>
+      </c>
+      <c r="E5">
+        <v>7.253984341991402E-3</v>
+      </c>
+      <c r="F5">
         <v>132092</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>1.3066934327454944E-2</v>
       </c>
-      <c r="F5">
-        <v>67012</v>
-      </c>
-      <c r="G5">
-        <v>7.253984341991402E-3</v>
-      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B6">
@@ -1524,20 +2392,20 @@
         <v>2.9172573890935762</v>
       </c>
       <c r="D6">
+        <v>27714254</v>
+      </c>
+      <c r="E6">
+        <v>3.0000412547897777</v>
+      </c>
+      <c r="F6">
         <v>28783458</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>2.8473454516780552</v>
       </c>
-      <c r="F6">
-        <v>27714254</v>
-      </c>
-      <c r="G6">
-        <v>3.0000412547897777</v>
-      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="22" t="s">
         <v>15</v>
       </c>
       <c r="B7">
@@ -1547,20 +2415,20 @@
         <v>24.992456812518267</v>
       </c>
       <c r="D7">
+        <v>206822079</v>
+      </c>
+      <c r="E7">
+        <v>22.388290494898058</v>
+      </c>
+      <c r="F7">
         <v>272735814</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>26.979839583645997</v>
       </c>
-      <c r="F7">
-        <v>206822079</v>
-      </c>
-      <c r="G7">
-        <v>22.388290494898058</v>
-      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B8">
@@ -1570,20 +2438,20 @@
         <v>8.2602812562000771</v>
       </c>
       <c r="D8">
+        <v>65303382</v>
+      </c>
+      <c r="E8">
+        <v>7.0690280920892246</v>
+      </c>
+      <c r="F8">
         <v>82083435</v>
       </c>
-      <c r="E8">
+      <c r="G8">
         <v>8.1199380319543693</v>
       </c>
-      <c r="F8">
-        <v>65303382</v>
-      </c>
-      <c r="G8">
-        <v>7.0690280920892246</v>
-      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B9">
@@ -1593,20 +2461,20 @@
         <v>10.401556086337321</v>
       </c>
       <c r="D9">
+        <v>92951519</v>
+      </c>
+      <c r="E9">
+        <v>10.06191224542345</v>
+      </c>
+      <c r="F9">
         <v>103423820</v>
       </c>
-      <c r="E9">
+      <c r="G9">
         <v>10.23099251911184</v>
       </c>
-      <c r="F9">
-        <v>92951519</v>
-      </c>
-      <c r="G9">
-        <v>10.06191224542345</v>
-      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10" s="26" t="s">
+      <c r="A10" s="22" t="s">
         <v>18</v>
       </c>
       <c r="B10">
@@ -1616,20 +2484,20 @@
         <v>4.1296056304360356</v>
       </c>
       <c r="D10">
+        <v>38608863</v>
+      </c>
+      <c r="E10">
+        <v>4.1793721671356057</v>
+      </c>
+      <c r="F10">
         <v>41077363</v>
       </c>
-      <c r="E10">
+      <c r="G10">
         <v>4.0634951750751567</v>
       </c>
-      <c r="F10">
-        <v>38608863</v>
-      </c>
-      <c r="G10">
-        <v>4.1793721671356057</v>
-      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B11">
@@ -1639,20 +2507,20 @@
         <v>0.20449292196492919</v>
       </c>
       <c r="D11">
+        <v>1999669</v>
+      </c>
+      <c r="E11">
+        <v>0.21646223982518961</v>
+      </c>
+      <c r="F11">
         <v>2077757</v>
       </c>
-      <c r="E11">
+      <c r="G11">
         <v>0.20553791499416924</v>
       </c>
-      <c r="F11">
-        <v>1999669</v>
-      </c>
-      <c r="G11">
-        <v>0.21646223982518961</v>
-      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B12">
@@ -1662,20 +2530,20 @@
         <v>0.48986844429409215</v>
       </c>
       <c r="D12">
+        <v>4484716</v>
+      </c>
+      <c r="E12">
+        <v>0.48546617982269313</v>
+      </c>
+      <c r="F12">
         <v>4830866</v>
       </c>
-      <c r="E12">
+      <c r="G12">
         <v>0.47788366264978172</v>
       </c>
-      <c r="F12">
-        <v>4484716</v>
-      </c>
-      <c r="G12">
-        <v>0.48546617982269313</v>
-      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B13">
@@ -1685,20 +2553,20 @@
         <v>21.833407938115208</v>
       </c>
       <c r="D13">
+        <v>204308974</v>
+      </c>
+      <c r="E13">
+        <v>22.116249303472937</v>
+      </c>
+      <c r="F13">
         <v>219971502</v>
       </c>
-      <c r="E13">
+      <c r="G13">
         <v>21.760236581667506</v>
       </c>
-      <c r="F13">
-        <v>204308974</v>
-      </c>
-      <c r="G13">
-        <v>22.116249303472937</v>
-      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B14">
@@ -1708,34 +2576,312 @@
         <v>53.910264676065303</v>
       </c>
       <c r="D14">
+        <v>477521182</v>
+      </c>
+      <c r="E14">
+        <v>51.691207204638374</v>
+      </c>
+      <c r="F14">
         <v>562700229</v>
       </c>
-      <c r="E14">
+      <c r="G14">
         <v>55.663983726394164</v>
-      </c>
-      <c r="F14">
-        <v>477521182</v>
-      </c>
-      <c r="G14">
-        <v>51.691207204638374</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4DB2C6C-C332-4F20-8513-DB08E00F160A}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="14.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.9296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.06640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.59765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="20">
+        <v>98.5</v>
+      </c>
+      <c r="C2" s="20">
+        <v>18</v>
+      </c>
+      <c r="D2" s="20">
+        <v>80.5</v>
+      </c>
+      <c r="E2" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="F2" s="20">
+        <v>1.3</v>
+      </c>
+      <c r="G2" s="20">
+        <v>4596</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="20">
+        <v>98.5</v>
+      </c>
+      <c r="C3" s="20">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="D3" s="20">
+        <v>78.900000000000006</v>
+      </c>
+      <c r="E3" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="F3" s="20">
+        <v>1.4</v>
+      </c>
+      <c r="G3" s="20">
+        <v>4596</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="20">
+        <v>98.5</v>
+      </c>
+      <c r="C4" s="20">
+        <v>21.7</v>
+      </c>
+      <c r="D4" s="20">
+        <v>76.8</v>
+      </c>
+      <c r="E4" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="20">
+        <v>1.4</v>
+      </c>
+      <c r="G4" s="20">
+        <v>4596</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="20">
+        <v>98.4</v>
+      </c>
+      <c r="C5" s="20">
+        <v>25.1</v>
+      </c>
+      <c r="D5" s="20">
+        <v>73.3</v>
+      </c>
+      <c r="E5" s="20">
+        <v>0.2</v>
+      </c>
+      <c r="F5" s="20">
+        <v>1.4</v>
+      </c>
+      <c r="G5" s="20">
+        <v>4596</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="20">
+        <v>98.7</v>
+      </c>
+      <c r="C6" s="20">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="D6" s="20">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="E6" s="20">
+        <v>0</v>
+      </c>
+      <c r="F6" s="20">
+        <v>1.3</v>
+      </c>
+      <c r="G6" s="20">
+        <v>4596</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="20">
+        <v>98.4</v>
+      </c>
+      <c r="C7" s="20">
+        <v>22.1</v>
+      </c>
+      <c r="D7" s="20">
+        <v>76.3</v>
+      </c>
+      <c r="E7" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="F7" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="G7" s="20">
+        <v>4596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A8" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="20">
+        <v>98.5</v>
+      </c>
+      <c r="C8" s="20">
+        <v>21.7</v>
+      </c>
+      <c r="D8" s="20">
+        <v>76.8</v>
+      </c>
+      <c r="E8" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="F8" s="20">
+        <v>1.4</v>
+      </c>
+      <c r="G8" s="20">
+        <v>4596</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A9" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="20">
+        <v>98.7</v>
+      </c>
+      <c r="C9" s="20">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D9" s="20">
+        <v>78.8</v>
+      </c>
+      <c r="E9" s="20">
+        <v>0</v>
+      </c>
+      <c r="F9" s="20">
+        <v>1.3</v>
+      </c>
+      <c r="G9" s="20">
+        <v>4596</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A10" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="20">
+        <v>98.5</v>
+      </c>
+      <c r="C10" s="20">
+        <v>21.6</v>
+      </c>
+      <c r="D10" s="20">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="E10" s="20">
+        <v>0</v>
+      </c>
+      <c r="F10" s="20">
+        <v>1.5</v>
+      </c>
+      <c r="G10" s="20">
+        <v>4596</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A11" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="20">
+        <v>98.5</v>
+      </c>
+      <c r="C11" s="20">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D11" s="20">
+        <v>78.599999999999994</v>
+      </c>
+      <c r="E11" s="20">
+        <v>0.1</v>
+      </c>
+      <c r="F11" s="20">
+        <v>1.4</v>
+      </c>
+      <c r="G11" s="20">
+        <v>4596</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EBF4821-B483-46FA-B2E9-0EDF5C01F089}">
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D25"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2112,12 +3258,229 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6805885-39AD-42FF-B7A6-A32B2C614A21}">
+  <dimension ref="A1:K6"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="23.9296875" customWidth="1"/>
+    <col min="2" max="3" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.06640625" customWidth="1"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.53125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.1328125" customWidth="1"/>
+    <col min="8" max="8" width="18.46484375" customWidth="1"/>
+    <col min="9" max="9" width="17.53125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.86328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+    </row>
+    <row r="2" spans="1:11" ht="28.9" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A3" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="23">
+        <v>1.59</v>
+      </c>
+      <c r="C3" s="35">
+        <v>4008</v>
+      </c>
+      <c r="D3" s="35">
+        <v>1004</v>
+      </c>
+      <c r="E3" s="38">
+        <v>1004</v>
+      </c>
+      <c r="F3" s="40">
+        <v>98.6</v>
+      </c>
+      <c r="G3" s="40">
+        <v>21</v>
+      </c>
+      <c r="H3" s="40">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="I3" s="40">
+        <v>0.1</v>
+      </c>
+      <c r="J3" s="40">
+        <v>1.3</v>
+      </c>
+      <c r="K3" s="21">
+        <v>4596</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A4" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="23">
+        <v>1.59</v>
+      </c>
+      <c r="C4" s="35">
+        <v>4008</v>
+      </c>
+      <c r="D4" s="35">
+        <v>1003.52</v>
+      </c>
+      <c r="E4" s="38">
+        <v>1003.52</v>
+      </c>
+      <c r="F4" s="40">
+        <v>98.6</v>
+      </c>
+      <c r="G4" s="40">
+        <v>18.7</v>
+      </c>
+      <c r="H4" s="40">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="I4" s="40">
+        <v>0.1</v>
+      </c>
+      <c r="J4" s="40">
+        <v>1.3</v>
+      </c>
+      <c r="K4" s="21">
+        <v>4596</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="A5" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="23">
+        <v>42.79</v>
+      </c>
+      <c r="C5" s="35">
+        <v>3190</v>
+      </c>
+      <c r="D5" s="35">
+        <v>1003.6</v>
+      </c>
+      <c r="E5" s="38">
+        <v>1003.52</v>
+      </c>
+      <c r="F5" s="40">
+        <v>98.6</v>
+      </c>
+      <c r="G5" s="40">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="H5" s="40">
+        <v>78.7</v>
+      </c>
+      <c r="I5" s="40">
+        <v>0.1</v>
+      </c>
+      <c r="J5" s="40">
+        <v>1.3</v>
+      </c>
+      <c r="K5" s="21">
+        <v>4596</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="36">
+        <v>48.21</v>
+      </c>
+      <c r="C6" s="37">
+        <v>3164</v>
+      </c>
+      <c r="D6" s="37">
+        <v>1001.5</v>
+      </c>
+      <c r="E6" s="39">
+        <v>1001.41</v>
+      </c>
+      <c r="F6" s="30">
+        <v>98.5</v>
+      </c>
+      <c r="G6" s="30">
+        <v>18</v>
+      </c>
+      <c r="H6" s="30">
+        <v>80.5</v>
+      </c>
+      <c r="I6" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="J6" s="30">
+        <v>1.3</v>
+      </c>
+      <c r="K6" s="29">
+        <v>4596</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1374E5B-E37D-404D-AD35-632E1017A0B8}">
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2413,7 +3776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E225DD34-2AEF-40F8-90BB-6F23BC70FCCA}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
@@ -2461,24 +3824,24 @@
       <c r="Q1" s="3"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20" t="s">
+      <c r="E2" s="42"/>
+      <c r="F2" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="20"/>
+      <c r="G2" s="42"/>
     </row>
     <row r="3" spans="1:17" ht="40.9" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="21"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
